--- a/ConvertedEqual/Michigan_Converted.xlsx
+++ b/ConvertedEqual/Michigan_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="288">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -844,6 +844,42 @@
   <si>
     <t>9/29/2020</t>
   </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1204,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN221"/>
+  <dimension ref="A1:AN233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,6 +1566,9 @@
       <c r="AA3" s="2">
         <v>43906</v>
       </c>
+      <c r="AB3" s="2">
+        <v>43906</v>
+      </c>
       <c r="AC3" s="2">
         <v>43913</v>
       </c>
@@ -1547,6 +1586,9 @@
       </c>
       <c r="AI3" s="2">
         <v>43945</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>43906</v>
       </c>
       <c r="AK3" s="2">
         <v>43906</v>
@@ -1640,6 +1682,9 @@
       <c r="AE4" s="2">
         <v>43983</v>
       </c>
+      <c r="AJ4" s="2">
+        <v>43990</v>
+      </c>
       <c r="AL4" s="2">
         <v>43990</v>
       </c>
@@ -1722,10 +1767,10 @@
         <v>0.1666666667</v>
       </c>
       <c r="U7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0.1666666667</v>
@@ -1746,13 +1791,13 @@
         <v>0.1666666667</v>
       </c>
       <c r="AC7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1779,7 +1824,7 @@
         <v>0.5</v>
       </c>
       <c r="AN7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -3370,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>0.08974358974615385</v>
+        <v>0.097222222225</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -3492,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>0.08974358974615385</v>
+        <v>0.097222222225</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -3614,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>0.08974358974615385</v>
+        <v>0.097222222225</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -3700,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3724,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24">
         <v>1</v>
@@ -3736,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="AN24">
-        <v>0.3564102564230769</v>
+        <v>0.4166666666833334</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -3822,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3846,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25">
         <v>1</v>
@@ -3858,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>0.3564102564230769</v>
+        <v>0.4166666666833334</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -3944,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3968,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26">
         <v>1</v>
@@ -3980,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>0.3564102564230769</v>
+        <v>0.4166666666833334</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -4066,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -4090,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27">
         <v>1</v>
@@ -4102,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>0.3564102564230769</v>
+        <v>0.4166666666833334</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -4188,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -4212,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28">
         <v>1</v>
@@ -4224,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>0.3564102564230769</v>
+        <v>0.4166666666833334</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -4310,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -4334,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29">
         <v>1</v>
@@ -4346,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>0.3564102564230769</v>
+        <v>0.4166666666833334</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -4432,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -4456,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30">
         <v>1</v>
@@ -4468,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="AN30">
-        <v>0.433333333346154</v>
+        <v>0.5000000000166669</v>
       </c>
     </row>
     <row r="31" spans="1:40">
@@ -4554,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>1</v>
@@ -4578,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31">
         <v>1</v>
@@ -4590,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="AN31">
-        <v>0.5487179487307695</v>
+        <v>0.5416666666833335</v>
       </c>
     </row>
     <row r="32" spans="1:40">
@@ -4676,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>1</v>
@@ -4700,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK32">
         <v>1</v>
@@ -4712,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AN32">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="33" spans="1:40">
@@ -4798,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
         <v>1</v>
@@ -4822,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33">
         <v>1</v>
@@ -4834,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="AN33">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="34" spans="1:40">
@@ -4920,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34">
         <v>1</v>
@@ -4944,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="AJ34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34">
         <v>1</v>
@@ -4956,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="AN34">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="35" spans="1:40">
@@ -5042,7 +5087,7 @@
         <v>1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>1</v>
@@ -5066,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35">
         <v>1</v>
@@ -5078,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="AN35">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="36" spans="1:40">
@@ -5164,7 +5209,7 @@
         <v>1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36">
         <v>1</v>
@@ -5188,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK36">
         <v>1</v>
@@ -5200,7 +5245,7 @@
         <v>1</v>
       </c>
       <c r="AN36">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="37" spans="1:40">
@@ -5286,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37">
         <v>1</v>
@@ -5310,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK37">
         <v>1</v>
@@ -5322,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="AN37">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="38" spans="1:40">
@@ -5408,7 +5453,7 @@
         <v>1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38">
         <v>1</v>
@@ -5432,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK38">
         <v>1</v>
@@ -5444,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="AN38">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="39" spans="1:40">
@@ -5530,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39">
         <v>1</v>
@@ -5554,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="AJ39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK39">
         <v>1</v>
@@ -5566,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="AN39">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="40" spans="1:40">
@@ -5652,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40">
         <v>1</v>
@@ -5676,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="AJ40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK40">
         <v>1</v>
@@ -5688,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="AN40">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="41" spans="1:40">
@@ -5774,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41">
         <v>1</v>
@@ -5798,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AJ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK41">
         <v>1</v>
@@ -5810,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="AN41">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="42" spans="1:40">
@@ -5896,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42">
         <v>1</v>
@@ -5920,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="AJ42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42">
         <v>1</v>
@@ -5932,7 +5977,7 @@
         <v>1</v>
       </c>
       <c r="AN42">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="43" spans="1:40">
@@ -6018,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43">
         <v>1</v>
@@ -6042,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="AJ43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43">
         <v>1</v>
@@ -6054,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="AN43">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="44" spans="1:40">
@@ -6140,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44">
         <v>1</v>
@@ -6164,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="AJ44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK44">
         <v>1</v>
@@ -6176,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="AN44">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="45" spans="1:40">
@@ -6262,7 +6307,7 @@
         <v>1</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45">
         <v>1</v>
@@ -6286,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="AJ45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK45">
         <v>1</v>
@@ -6298,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="AN45">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="46" spans="1:40">
@@ -6384,7 +6429,7 @@
         <v>1</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46">
         <v>1</v>
@@ -6408,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="AJ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK46">
         <v>1</v>
@@ -6420,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="AN46">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="47" spans="1:40">
@@ -6506,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47">
         <v>1</v>
@@ -6530,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="AJ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK47">
         <v>1</v>
@@ -6542,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AN47">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="48" spans="1:40">
@@ -6628,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48">
         <v>1</v>
@@ -6652,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="AJ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48">
         <v>1</v>
@@ -6664,7 +6709,7 @@
         <v>1</v>
       </c>
       <c r="AN48">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="49" spans="1:40">
@@ -6750,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49">
         <v>1</v>
@@ -6774,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AJ49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK49">
         <v>1</v>
@@ -6786,7 +6831,7 @@
         <v>1</v>
       </c>
       <c r="AN49">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="50" spans="1:40">
@@ -6872,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <v>1</v>
@@ -6896,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="AJ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK50">
         <v>1</v>
@@ -6908,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="AN50">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="51" spans="1:40">
@@ -6994,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51">
         <v>1</v>
@@ -7018,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="AJ51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK51">
         <v>1</v>
@@ -7030,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="AN51">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="52" spans="1:40">
@@ -7116,7 +7161,7 @@
         <v>1</v>
       </c>
       <c r="AB52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52">
         <v>1</v>
@@ -7140,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="AJ52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK52">
         <v>1</v>
@@ -7152,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="AN52">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="53" spans="1:40">
@@ -7238,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53">
         <v>1</v>
@@ -7262,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="AJ53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK53">
         <v>1</v>
@@ -7274,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="AN53">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="54" spans="1:40">
@@ -7360,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>1</v>
@@ -7384,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="AJ54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK54">
         <v>1</v>
@@ -7396,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="AN54">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="55" spans="1:40">
@@ -7482,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55">
         <v>1</v>
@@ -7506,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="AJ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK55">
         <v>1</v>
@@ -7518,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="AN55">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="56" spans="1:40">
@@ -7604,7 +7649,7 @@
         <v>1</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>1</v>
@@ -7628,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="AJ56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK56">
         <v>1</v>
@@ -7640,7 +7685,7 @@
         <v>1</v>
       </c>
       <c r="AN56">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="57" spans="1:40">
@@ -7726,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57">
         <v>1</v>
@@ -7750,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="AJ57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK57">
         <v>1</v>
@@ -7762,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="AN57">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="58" spans="1:40">
@@ -7848,7 +7893,7 @@
         <v>1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58">
         <v>1</v>
@@ -7872,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="AJ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK58">
         <v>1</v>
@@ -7884,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="AN58">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="59" spans="1:40">
@@ -7970,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>1</v>
@@ -7994,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="AJ59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK59">
         <v>1</v>
@@ -8006,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="AN59">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="60" spans="1:40">
@@ -8092,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60">
         <v>1</v>
@@ -8116,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="AJ60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK60">
         <v>1</v>
@@ -8128,7 +8173,7 @@
         <v>1</v>
       </c>
       <c r="AN60">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="61" spans="1:40">
@@ -8214,7 +8259,7 @@
         <v>1</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61">
         <v>1</v>
@@ -8238,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="AJ61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK61">
         <v>1</v>
@@ -8250,7 +8295,7 @@
         <v>1</v>
       </c>
       <c r="AN61">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="62" spans="1:40">
@@ -8336,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62">
         <v>1</v>
@@ -8360,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="AJ62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK62">
         <v>1</v>
@@ -8372,7 +8417,7 @@
         <v>1</v>
       </c>
       <c r="AN62">
-        <v>0.8179487179538463</v>
+        <v>0.8333333333416668</v>
       </c>
     </row>
     <row r="63" spans="1:40">
@@ -8458,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63">
         <v>1</v>
@@ -8482,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="AJ63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK63">
         <v>1</v>
@@ -8494,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="AN63">
-        <v>0.8948717948769231</v>
+        <v>0.9166666666750002</v>
       </c>
     </row>
     <row r="64" spans="1:40">
@@ -8580,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64">
         <v>1</v>
@@ -8604,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK64">
         <v>1</v>
@@ -8616,7 +8661,7 @@
         <v>1</v>
       </c>
       <c r="AN64">
-        <v>0.8435897436000003</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="65" spans="1:40">
@@ -8702,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC65">
         <v>1</v>
@@ -8726,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="AJ65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK65">
         <v>1</v>
@@ -8738,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="AN65">
-        <v>0.8435897436000003</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="66" spans="1:40">
@@ -8824,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC66">
         <v>1</v>
@@ -8848,7 +8893,7 @@
         <v>1</v>
       </c>
       <c r="AJ66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK66">
         <v>1</v>
@@ -8860,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="AN66">
-        <v>0.8435897436000003</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="67" spans="1:40">
@@ -8946,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67">
         <v>1</v>
@@ -8970,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="AJ67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK67">
         <v>1</v>
@@ -8982,7 +9027,7 @@
         <v>1</v>
       </c>
       <c r="AN67">
-        <v>0.8435897436000003</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="68" spans="1:40">
@@ -9068,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC68">
         <v>1</v>
@@ -9092,7 +9137,7 @@
         <v>1</v>
       </c>
       <c r="AJ68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK68">
         <v>1</v>
@@ -9104,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="AN68">
-        <v>0.8435897436000003</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="69" spans="1:40">
@@ -9190,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69">
         <v>1</v>
@@ -9214,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="AJ69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK69">
         <v>1</v>
@@ -9226,7 +9271,7 @@
         <v>1</v>
       </c>
       <c r="AN69">
-        <v>0.8435897436000003</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="70" spans="1:40">
@@ -9312,7 +9357,7 @@
         <v>1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC70">
         <v>1</v>
@@ -9336,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="AJ70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK70">
         <v>1</v>
@@ -9348,7 +9393,7 @@
         <v>1</v>
       </c>
       <c r="AN70">
-        <v>0.8435897436000003</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="71" spans="1:40">
@@ -9434,7 +9479,7 @@
         <v>1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC71">
         <v>1</v>
@@ -9458,7 +9503,7 @@
         <v>1</v>
       </c>
       <c r="AJ71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK71">
         <v>1</v>
@@ -9470,7 +9515,7 @@
         <v>1</v>
       </c>
       <c r="AN71">
-        <v>0.8435897436000003</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="72" spans="1:40">
@@ -9556,7 +9601,7 @@
         <v>1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72">
         <v>1</v>
@@ -9580,7 +9625,7 @@
         <v>1</v>
       </c>
       <c r="AJ72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK72">
         <v>1</v>
@@ -9592,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="AN72">
-        <v>0.8435897436000003</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="73" spans="1:40">
@@ -9678,7 +9723,7 @@
         <v>1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC73">
         <v>1</v>
@@ -9702,7 +9747,7 @@
         <v>1</v>
       </c>
       <c r="AJ73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK73">
         <v>1</v>
@@ -9714,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="AN73">
-        <v>0.8435897436000003</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="74" spans="1:40">
@@ -9800,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74">
         <v>1</v>
@@ -9824,7 +9869,7 @@
         <v>1</v>
       </c>
       <c r="AJ74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK74">
         <v>1</v>
@@ -9836,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="AN74">
-        <v>0.8435897436000003</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="75" spans="1:40">
@@ -9922,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC75">
         <v>1</v>
@@ -9946,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="AJ75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK75">
         <v>1</v>
@@ -9958,7 +10003,7 @@
         <v>1</v>
       </c>
       <c r="AN75">
-        <v>0.8435897436000003</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="76" spans="1:40">
@@ -10044,7 +10089,7 @@
         <v>1</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC76">
         <v>1</v>
@@ -10068,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="AJ76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK76">
         <v>1</v>
@@ -10080,7 +10125,7 @@
         <v>1</v>
       </c>
       <c r="AN76">
-        <v>0.8435897436000003</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="77" spans="1:40">
@@ -10166,7 +10211,7 @@
         <v>1</v>
       </c>
       <c r="AB77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC77">
         <v>0</v>
@@ -10190,7 +10235,7 @@
         <v>1</v>
       </c>
       <c r="AJ77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK77">
         <v>1</v>
@@ -10202,7 +10247,7 @@
         <v>1</v>
       </c>
       <c r="AN77">
-        <v>0.8128205128307695</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="78" spans="1:40">
@@ -10288,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC78">
         <v>0</v>
@@ -10312,7 +10357,7 @@
         <v>1</v>
       </c>
       <c r="AJ78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK78">
         <v>1</v>
@@ -10324,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="AN78">
-        <v>0.8128205128307695</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="79" spans="1:40">
@@ -10410,7 +10455,7 @@
         <v>1</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC79">
         <v>0</v>
@@ -10434,7 +10479,7 @@
         <v>1</v>
       </c>
       <c r="AJ79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK79">
         <v>1</v>
@@ -10446,7 +10491,7 @@
         <v>1</v>
       </c>
       <c r="AN79">
-        <v>0.8128205128307695</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="80" spans="1:40">
@@ -10532,7 +10577,7 @@
         <v>1</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC80">
         <v>0</v>
@@ -10556,7 +10601,7 @@
         <v>1</v>
       </c>
       <c r="AJ80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK80">
         <v>1</v>
@@ -10568,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="AN80">
-        <v>0.8128205128307695</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="81" spans="1:40">
@@ -10654,7 +10699,7 @@
         <v>1</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC81">
         <v>0</v>
@@ -10678,7 +10723,7 @@
         <v>1</v>
       </c>
       <c r="AJ81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK81">
         <v>1</v>
@@ -10690,7 +10735,7 @@
         <v>1</v>
       </c>
       <c r="AN81">
-        <v>0.7820512820615387</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="82" spans="1:40">
@@ -10776,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -10800,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="AJ82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK82">
         <v>1</v>
@@ -10812,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="AN82">
-        <v>0.7820512820615387</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="83" spans="1:40">
@@ -10898,7 +10943,7 @@
         <v>1</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC83">
         <v>0</v>
@@ -10922,7 +10967,7 @@
         <v>1</v>
       </c>
       <c r="AJ83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK83">
         <v>1</v>
@@ -10934,7 +10979,7 @@
         <v>1</v>
       </c>
       <c r="AN83">
-        <v>0.7820512820615387</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="84" spans="1:40">
@@ -11020,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC84">
         <v>0</v>
@@ -11044,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="AJ84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK84">
         <v>1</v>
@@ -11056,7 +11101,7 @@
         <v>1</v>
       </c>
       <c r="AN84">
-        <v>0.7820512820615387</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="85" spans="1:40">
@@ -11142,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC85">
         <v>0</v>
@@ -11166,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="AJ85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK85">
         <v>1</v>
@@ -11178,7 +11223,7 @@
         <v>1</v>
       </c>
       <c r="AN85">
-        <v>0.7820512820615387</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="86" spans="1:40">
@@ -11264,7 +11309,7 @@
         <v>1</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC86">
         <v>0</v>
@@ -11288,7 +11333,7 @@
         <v>1</v>
       </c>
       <c r="AJ86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK86">
         <v>1</v>
@@ -11300,7 +11345,7 @@
         <v>1</v>
       </c>
       <c r="AN86">
-        <v>0.7820512820615387</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="87" spans="1:40">
@@ -11386,7 +11431,7 @@
         <v>1</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -11410,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="AJ87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK87">
         <v>1</v>
@@ -11422,7 +11467,7 @@
         <v>1</v>
       </c>
       <c r="AN87">
-        <v>0.7820512820615387</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="88" spans="1:40">
@@ -11508,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -11532,7 +11577,7 @@
         <v>1</v>
       </c>
       <c r="AJ88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK88">
         <v>1</v>
@@ -11544,7 +11589,7 @@
         <v>1</v>
       </c>
       <c r="AN88">
-        <v>0.7820512820615387</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="89" spans="1:40">
@@ -11630,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="AB89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC89">
         <v>0</v>
@@ -11654,7 +11699,7 @@
         <v>1</v>
       </c>
       <c r="AJ89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK89">
         <v>1</v>
@@ -11666,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="AN89">
-        <v>0.7820512820615387</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="90" spans="1:40">
@@ -11752,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>0</v>
@@ -11776,7 +11821,7 @@
         <v>1</v>
       </c>
       <c r="AJ90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK90">
         <v>1</v>
@@ -11788,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="AN90">
-        <v>0.7820512820615387</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="91" spans="1:40">
@@ -11874,7 +11919,7 @@
         <v>1</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC91">
         <v>0</v>
@@ -11898,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="AJ91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK91">
         <v>1</v>
@@ -11910,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="AN91">
-        <v>0.7820512820615387</v>
+        <v>0.8611111111250002</v>
       </c>
     </row>
     <row r="92" spans="1:40">
@@ -11996,7 +12041,7 @@
         <v>1</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -12020,7 +12065,7 @@
         <v>1</v>
       </c>
       <c r="AJ92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK92">
         <v>1</v>
@@ -12032,7 +12077,7 @@
         <v>1</v>
       </c>
       <c r="AN92">
-        <v>0.7666666666769232</v>
+        <v>0.8444444444583334</v>
       </c>
     </row>
     <row r="93" spans="1:40">
@@ -12118,7 +12163,7 @@
         <v>1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC93">
         <v>0</v>
@@ -12142,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="AJ93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK93">
         <v>1</v>
@@ -12154,7 +12199,7 @@
         <v>1</v>
       </c>
       <c r="AN93">
-        <v>0.7666666666769232</v>
+        <v>0.8444444444583334</v>
       </c>
     </row>
     <row r="94" spans="1:40">
@@ -12240,7 +12285,7 @@
         <v>1</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC94">
         <v>0</v>
@@ -12264,7 +12309,7 @@
         <v>1</v>
       </c>
       <c r="AJ94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK94">
         <v>1</v>
@@ -12276,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="AN94">
-        <v>0.7666666666769232</v>
+        <v>0.8444444444583334</v>
       </c>
     </row>
     <row r="95" spans="1:40">
@@ -12362,7 +12407,7 @@
         <v>1</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC95">
         <v>0</v>
@@ -12386,7 +12431,7 @@
         <v>1</v>
       </c>
       <c r="AJ95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK95">
         <v>1</v>
@@ -12398,7 +12443,7 @@
         <v>1</v>
       </c>
       <c r="AN95">
-        <v>0.7666666666769232</v>
+        <v>0.8444444444583334</v>
       </c>
     </row>
     <row r="96" spans="1:40">
@@ -12484,7 +12529,7 @@
         <v>1</v>
       </c>
       <c r="AB96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC96">
         <v>0</v>
@@ -12508,7 +12553,7 @@
         <v>1</v>
       </c>
       <c r="AJ96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK96">
         <v>1</v>
@@ -12520,7 +12565,7 @@
         <v>1</v>
       </c>
       <c r="AN96">
-        <v>0.7666666666769232</v>
+        <v>0.8444444444583334</v>
       </c>
     </row>
     <row r="97" spans="1:40">
@@ -12606,7 +12651,7 @@
         <v>1</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC97">
         <v>0</v>
@@ -12630,7 +12675,7 @@
         <v>1</v>
       </c>
       <c r="AJ97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK97">
         <v>1</v>
@@ -12642,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="AN97">
-        <v>0.7666666666769232</v>
+        <v>0.8444444444583334</v>
       </c>
     </row>
     <row r="98" spans="1:40">
@@ -12728,7 +12773,7 @@
         <v>1</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -12752,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="AJ98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK98">
         <v>1</v>
@@ -12764,7 +12809,7 @@
         <v>1</v>
       </c>
       <c r="AN98">
-        <v>0.7666666666769232</v>
+        <v>0.8444444444583334</v>
       </c>
     </row>
     <row r="99" spans="1:40">
@@ -12850,7 +12895,7 @@
         <v>1</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC99">
         <v>0</v>
@@ -12874,7 +12919,7 @@
         <v>1</v>
       </c>
       <c r="AJ99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK99">
         <v>1</v>
@@ -12886,7 +12931,7 @@
         <v>1</v>
       </c>
       <c r="AN99">
-        <v>0.7666666666769232</v>
+        <v>0.8444444444583334</v>
       </c>
     </row>
     <row r="100" spans="1:40">
@@ -12972,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC100">
         <v>0</v>
@@ -12996,7 +13041,7 @@
         <v>1</v>
       </c>
       <c r="AJ100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK100">
         <v>1</v>
@@ -13008,7 +13053,7 @@
         <v>1</v>
       </c>
       <c r="AN100">
-        <v>0.7666666666769232</v>
+        <v>0.8444444444583334</v>
       </c>
     </row>
     <row r="101" spans="1:40">
@@ -13094,7 +13139,7 @@
         <v>1</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC101">
         <v>0</v>
@@ -13118,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="AJ101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK101">
         <v>1</v>
@@ -13130,7 +13175,7 @@
         <v>1</v>
       </c>
       <c r="AN101">
-        <v>0.7666666666769232</v>
+        <v>0.8444444444583334</v>
       </c>
     </row>
     <row r="102" spans="1:40">
@@ -13216,7 +13261,7 @@
         <v>1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC102">
         <v>0</v>
@@ -13240,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="AJ102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK102">
         <v>1</v>
@@ -13252,7 +13297,7 @@
         <v>1</v>
       </c>
       <c r="AN102">
-        <v>0.674358974369231</v>
+        <v>0.7611111111250001</v>
       </c>
     </row>
     <row r="103" spans="1:40">
@@ -13338,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC103">
         <v>0</v>
@@ -13362,7 +13407,7 @@
         <v>1</v>
       </c>
       <c r="AJ103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK103">
         <v>1</v>
@@ -13374,7 +13419,7 @@
         <v>1</v>
       </c>
       <c r="AN103">
-        <v>0.674358974369231</v>
+        <v>0.7611111111250001</v>
       </c>
     </row>
     <row r="104" spans="1:40">
@@ -13460,7 +13505,7 @@
         <v>1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC104">
         <v>0</v>
@@ -13484,7 +13529,7 @@
         <v>1</v>
       </c>
       <c r="AJ104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK104">
         <v>1</v>
@@ -13496,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="AN104">
-        <v>0.674358974369231</v>
+        <v>0.7611111111250001</v>
       </c>
     </row>
     <row r="105" spans="1:40">
@@ -13582,7 +13627,7 @@
         <v>1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC105">
         <v>0</v>
@@ -13606,7 +13651,7 @@
         <v>1</v>
       </c>
       <c r="AJ105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK105">
         <v>1</v>
@@ -13618,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="AN105">
-        <v>0.5820512820615386</v>
+        <v>0.6611111111250002</v>
       </c>
     </row>
     <row r="106" spans="1:40">
@@ -13704,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC106">
         <v>0</v>
@@ -13728,7 +13773,7 @@
         <v>1</v>
       </c>
       <c r="AJ106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK106">
         <v>1</v>
@@ -13740,7 +13785,7 @@
         <v>0</v>
       </c>
       <c r="AN106">
-        <v>0.5820512820615386</v>
+        <v>0.6611111111250002</v>
       </c>
     </row>
     <row r="107" spans="1:40">
@@ -13826,7 +13871,7 @@
         <v>1</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC107">
         <v>0</v>
@@ -13850,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="AJ107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK107">
         <v>1</v>
@@ -13862,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="AN107">
-        <v>0.5820512820615386</v>
+        <v>0.6611111111250002</v>
       </c>
     </row>
     <row r="108" spans="1:40">
@@ -13948,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC108">
         <v>0</v>
@@ -13972,7 +14017,7 @@
         <v>1</v>
       </c>
       <c r="AJ108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK108">
         <v>1</v>
@@ -13984,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="AN108">
-        <v>0.5820512820615386</v>
+        <v>0.6611111111250002</v>
       </c>
     </row>
     <row r="109" spans="1:40">
@@ -14070,7 +14115,7 @@
         <v>1</v>
       </c>
       <c r="AB109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC109">
         <v>0</v>
@@ -14106,7 +14151,7 @@
         <v>0</v>
       </c>
       <c r="AN109">
-        <v>0.5102564102692309</v>
+        <v>0.5666666666833334</v>
       </c>
     </row>
     <row r="110" spans="1:40">
@@ -14192,7 +14237,7 @@
         <v>1</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC110">
         <v>0</v>
@@ -14228,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="AN110">
-        <v>0.5102564102692309</v>
+        <v>0.5666666666833334</v>
       </c>
     </row>
     <row r="111" spans="1:40">
@@ -14314,7 +14359,7 @@
         <v>0</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC111">
         <v>0</v>
@@ -14350,7 +14395,7 @@
         <v>0</v>
       </c>
       <c r="AN111">
-        <v>0.4076923076923077</v>
+        <v>0.4555555555583333</v>
       </c>
     </row>
     <row r="112" spans="1:40">
@@ -14436,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC112">
         <v>0</v>
@@ -14472,7 +14517,7 @@
         <v>0</v>
       </c>
       <c r="AN112">
-        <v>0.4076923076923077</v>
+        <v>0.4555555555583333</v>
       </c>
     </row>
     <row r="113" spans="1:40">
@@ -14558,7 +14603,7 @@
         <v>0</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC113">
         <v>0</v>
@@ -14594,7 +14639,7 @@
         <v>0</v>
       </c>
       <c r="AN113">
-        <v>0.4076923076923077</v>
+        <v>0.4555555555583333</v>
       </c>
     </row>
     <row r="114" spans="1:40">
@@ -14680,7 +14725,7 @@
         <v>0</v>
       </c>
       <c r="AB114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC114">
         <v>0</v>
@@ -14716,7 +14761,7 @@
         <v>0</v>
       </c>
       <c r="AN114">
-        <v>0.4076923076923077</v>
+        <v>0.4555555555583333</v>
       </c>
     </row>
     <row r="115" spans="1:40">
@@ -14802,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC115">
         <v>0</v>
@@ -14838,7 +14883,7 @@
         <v>0</v>
       </c>
       <c r="AN115">
-        <v>0.4076923076923077</v>
+        <v>0.4555555555583333</v>
       </c>
     </row>
     <row r="116" spans="1:40">
@@ -14924,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC116">
         <v>0</v>
@@ -14960,7 +15005,7 @@
         <v>0</v>
       </c>
       <c r="AN116">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="117" spans="1:40">
@@ -15046,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC117">
         <v>0</v>
@@ -15082,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="AN117">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="118" spans="1:40">
@@ -15168,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC118">
         <v>0</v>
@@ -15204,7 +15249,7 @@
         <v>0</v>
       </c>
       <c r="AN118">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="119" spans="1:40">
@@ -15290,7 +15335,7 @@
         <v>0</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC119">
         <v>0</v>
@@ -15326,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="AN119">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="120" spans="1:40">
@@ -15412,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC120">
         <v>0</v>
@@ -15448,7 +15493,7 @@
         <v>0</v>
       </c>
       <c r="AN120">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="121" spans="1:40">
@@ -15534,7 +15579,7 @@
         <v>0</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC121">
         <v>0</v>
@@ -15570,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="AN121">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="122" spans="1:40">
@@ -15656,7 +15701,7 @@
         <v>0</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC122">
         <v>0</v>
@@ -15692,7 +15737,7 @@
         <v>0</v>
       </c>
       <c r="AN122">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="123" spans="1:40">
@@ -15778,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC123">
         <v>0</v>
@@ -15814,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="AN123">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="124" spans="1:40">
@@ -15900,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC124">
         <v>0</v>
@@ -15936,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="AN124">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="125" spans="1:40">
@@ -16022,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC125">
         <v>0</v>
@@ -16058,7 +16103,7 @@
         <v>0</v>
       </c>
       <c r="AN125">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="126" spans="1:40">
@@ -16144,7 +16189,7 @@
         <v>0</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC126">
         <v>0</v>
@@ -16180,7 +16225,7 @@
         <v>0</v>
       </c>
       <c r="AN126">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="127" spans="1:40">
@@ -16266,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC127">
         <v>0</v>
@@ -16302,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="AN127">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="128" spans="1:40">
@@ -16388,7 +16433,7 @@
         <v>0</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC128">
         <v>0</v>
@@ -16424,7 +16469,7 @@
         <v>0</v>
       </c>
       <c r="AN128">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="129" spans="1:40">
@@ -16510,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC129">
         <v>0</v>
@@ -16546,7 +16591,7 @@
         <v>0</v>
       </c>
       <c r="AN129">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="130" spans="1:40">
@@ -16632,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC130">
         <v>0</v>
@@ -16668,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="AN130">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="131" spans="1:40">
@@ -16754,7 +16799,7 @@
         <v>0</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC131">
         <v>0</v>
@@ -16790,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="AN131">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="132" spans="1:40">
@@ -16876,7 +16921,7 @@
         <v>0</v>
       </c>
       <c r="AB132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC132">
         <v>0</v>
@@ -16912,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="AN132">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="133" spans="1:40">
@@ -16998,7 +17043,7 @@
         <v>0</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>0</v>
@@ -17034,7 +17079,7 @@
         <v>0</v>
       </c>
       <c r="AN133">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="134" spans="1:40">
@@ -17120,7 +17165,7 @@
         <v>0</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC134">
         <v>0</v>
@@ -17156,7 +17201,7 @@
         <v>0</v>
       </c>
       <c r="AN134">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="135" spans="1:40">
@@ -17242,7 +17287,7 @@
         <v>0</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC135">
         <v>0</v>
@@ -17278,7 +17323,7 @@
         <v>0</v>
       </c>
       <c r="AN135">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="136" spans="1:40">
@@ -17364,7 +17409,7 @@
         <v>0</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC136">
         <v>0</v>
@@ -17400,7 +17445,7 @@
         <v>0</v>
       </c>
       <c r="AN136">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="137" spans="1:40">
@@ -17486,7 +17531,7 @@
         <v>0</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC137">
         <v>0</v>
@@ -17522,7 +17567,7 @@
         <v>0</v>
       </c>
       <c r="AN137">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="138" spans="1:40">
@@ -17608,7 +17653,7 @@
         <v>0</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC138">
         <v>0</v>
@@ -17644,7 +17689,7 @@
         <v>0</v>
       </c>
       <c r="AN138">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="139" spans="1:40">
@@ -17730,7 +17775,7 @@
         <v>0</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC139">
         <v>0</v>
@@ -17766,7 +17811,7 @@
         <v>0</v>
       </c>
       <c r="AN139">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="140" spans="1:40">
@@ -17852,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC140">
         <v>0</v>
@@ -17888,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="AN140">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="141" spans="1:40">
@@ -17974,7 +18019,7 @@
         <v>0</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC141">
         <v>0</v>
@@ -18010,7 +18055,7 @@
         <v>0</v>
       </c>
       <c r="AN141">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="142" spans="1:40">
@@ -18096,7 +18141,7 @@
         <v>0</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC142">
         <v>0</v>
@@ -18132,7 +18177,7 @@
         <v>0</v>
       </c>
       <c r="AN142">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="143" spans="1:40">
@@ -18218,7 +18263,7 @@
         <v>0</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC143">
         <v>0</v>
@@ -18254,7 +18299,7 @@
         <v>0</v>
       </c>
       <c r="AN143">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="144" spans="1:40">
@@ -18340,7 +18385,7 @@
         <v>0</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC144">
         <v>0</v>
@@ -18376,7 +18421,7 @@
         <v>0</v>
       </c>
       <c r="AN144">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="145" spans="1:40">
@@ -18462,7 +18507,7 @@
         <v>0</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC145">
         <v>0</v>
@@ -18498,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="AN145">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="146" spans="1:40">
@@ -18584,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC146">
         <v>0</v>
@@ -18620,7 +18665,7 @@
         <v>0</v>
       </c>
       <c r="AN146">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="147" spans="1:40">
@@ -18706,7 +18751,7 @@
         <v>0</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC147">
         <v>0</v>
@@ -18742,7 +18787,7 @@
         <v>0</v>
       </c>
       <c r="AN147">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="148" spans="1:40">
@@ -18828,7 +18873,7 @@
         <v>0</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC148">
         <v>0</v>
@@ -18864,7 +18909,7 @@
         <v>0</v>
       </c>
       <c r="AN148">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="149" spans="1:40">
@@ -18950,7 +18995,7 @@
         <v>0</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC149">
         <v>0</v>
@@ -18986,7 +19031,7 @@
         <v>0</v>
       </c>
       <c r="AN149">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="150" spans="1:40">
@@ -19072,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC150">
         <v>0</v>
@@ -19108,7 +19153,7 @@
         <v>0</v>
       </c>
       <c r="AN150">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="151" spans="1:40">
@@ -19194,7 +19239,7 @@
         <v>0</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC151">
         <v>0</v>
@@ -19230,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="AN151">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="152" spans="1:40">
@@ -19316,7 +19361,7 @@
         <v>0</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC152">
         <v>0</v>
@@ -19352,7 +19397,7 @@
         <v>0</v>
       </c>
       <c r="AN152">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="153" spans="1:40">
@@ -19438,7 +19483,7 @@
         <v>0</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC153">
         <v>0</v>
@@ -19474,7 +19519,7 @@
         <v>0</v>
       </c>
       <c r="AN153">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="154" spans="1:40">
@@ -19560,7 +19605,7 @@
         <v>0</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC154">
         <v>0</v>
@@ -19596,7 +19641,7 @@
         <v>0</v>
       </c>
       <c r="AN154">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="155" spans="1:40">
@@ -19682,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC155">
         <v>0</v>
@@ -19718,7 +19763,7 @@
         <v>0</v>
       </c>
       <c r="AN155">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="156" spans="1:40">
@@ -19804,7 +19849,7 @@
         <v>0</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC156">
         <v>0</v>
@@ -19840,7 +19885,7 @@
         <v>0</v>
       </c>
       <c r="AN156">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="157" spans="1:40">
@@ -19926,7 +19971,7 @@
         <v>0</v>
       </c>
       <c r="AB157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC157">
         <v>0</v>
@@ -19962,7 +20007,7 @@
         <v>0</v>
       </c>
       <c r="AN157">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="158" spans="1:40">
@@ -20048,7 +20093,7 @@
         <v>0</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC158">
         <v>0</v>
@@ -20084,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="AN158">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="159" spans="1:40">
@@ -20170,7 +20215,7 @@
         <v>0</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC159">
         <v>0</v>
@@ -20206,7 +20251,7 @@
         <v>0</v>
       </c>
       <c r="AN159">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="160" spans="1:40">
@@ -20292,7 +20337,7 @@
         <v>0</v>
       </c>
       <c r="AB160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC160">
         <v>0</v>
@@ -20328,7 +20373,7 @@
         <v>0</v>
       </c>
       <c r="AN160">
-        <v>0.3461538461538461</v>
+        <v>0.3888888888916666</v>
       </c>
     </row>
     <row r="161" spans="1:40">
@@ -20414,7 +20459,7 @@
         <v>0</v>
       </c>
       <c r="AB161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC161">
         <v>0</v>
@@ -20450,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="AN161">
-        <v>0.3615384615384615</v>
+        <v>0.4055555555583333</v>
       </c>
     </row>
     <row r="162" spans="1:40">
@@ -20536,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="AB162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC162">
         <v>0</v>
@@ -20572,7 +20617,7 @@
         <v>0</v>
       </c>
       <c r="AN162">
-        <v>0.3615384615384615</v>
+        <v>0.4055555555583333</v>
       </c>
     </row>
     <row r="163" spans="1:40">
@@ -20658,7 +20703,7 @@
         <v>0</v>
       </c>
       <c r="AB163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC163">
         <v>0</v>
@@ -20694,7 +20739,7 @@
         <v>0</v>
       </c>
       <c r="AN163">
-        <v>0.3615384615384615</v>
+        <v>0.4055555555583333</v>
       </c>
     </row>
     <row r="164" spans="1:40">
@@ -20780,7 +20825,7 @@
         <v>0</v>
       </c>
       <c r="AB164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC164">
         <v>0</v>
@@ -20816,7 +20861,7 @@
         <v>0</v>
       </c>
       <c r="AN164">
-        <v>0.3615384615384615</v>
+        <v>0.4055555555583333</v>
       </c>
     </row>
     <row r="165" spans="1:40">
@@ -20902,7 +20947,7 @@
         <v>0</v>
       </c>
       <c r="AB165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC165">
         <v>0</v>
@@ -20938,7 +20983,7 @@
         <v>0</v>
       </c>
       <c r="AN165">
-        <v>0.3615384615384615</v>
+        <v>0.4055555555583333</v>
       </c>
     </row>
     <row r="166" spans="1:40">
@@ -21024,7 +21069,7 @@
         <v>0</v>
       </c>
       <c r="AB166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC166">
         <v>0</v>
@@ -21060,7 +21105,7 @@
         <v>0</v>
       </c>
       <c r="AN166">
-        <v>0.3615384615384615</v>
+        <v>0.4055555555583333</v>
       </c>
     </row>
     <row r="167" spans="1:40">
@@ -21182,7 +21227,7 @@
         <v>0</v>
       </c>
       <c r="AN167">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:40">
@@ -21304,7 +21349,7 @@
         <v>0</v>
       </c>
       <c r="AN168">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:40">
@@ -21426,7 +21471,7 @@
         <v>0</v>
       </c>
       <c r="AN169">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:40">
@@ -21548,7 +21593,7 @@
         <v>0</v>
       </c>
       <c r="AN170">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:40">
@@ -21670,7 +21715,7 @@
         <v>0</v>
       </c>
       <c r="AN171">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:40">
@@ -21792,7 +21837,7 @@
         <v>0</v>
       </c>
       <c r="AN172">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:40">
@@ -21914,7 +21959,7 @@
         <v>0</v>
       </c>
       <c r="AN173">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:40">
@@ -22036,7 +22081,7 @@
         <v>0</v>
       </c>
       <c r="AN174">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:40">
@@ -22158,7 +22203,7 @@
         <v>0</v>
       </c>
       <c r="AN175">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:40">
@@ -22280,7 +22325,7 @@
         <v>0</v>
       </c>
       <c r="AN176">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:40">
@@ -22402,7 +22447,7 @@
         <v>0</v>
       </c>
       <c r="AN177">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:40">
@@ -22524,7 +22569,7 @@
         <v>0</v>
       </c>
       <c r="AN178">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:40">
@@ -22646,7 +22691,7 @@
         <v>0</v>
       </c>
       <c r="AN179">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:40">
@@ -22768,7 +22813,7 @@
         <v>0</v>
       </c>
       <c r="AN180">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:40">
@@ -22890,7 +22935,7 @@
         <v>0</v>
       </c>
       <c r="AN181">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:40">
@@ -23012,7 +23057,7 @@
         <v>0</v>
       </c>
       <c r="AN182">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:40">
@@ -23134,7 +23179,7 @@
         <v>0</v>
       </c>
       <c r="AN183">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:40">
@@ -23256,7 +23301,7 @@
         <v>0</v>
       </c>
       <c r="AN184">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="185" spans="1:40">
@@ -23378,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="AN185">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="186" spans="1:40">
@@ -23500,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="AN186">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:40">
@@ -23622,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="AN187">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="188" spans="1:40">
@@ -23744,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="AN188">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:40">
@@ -23866,7 +23911,7 @@
         <v>0</v>
       </c>
       <c r="AN189">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:40">
@@ -23988,7 +24033,7 @@
         <v>0</v>
       </c>
       <c r="AN190">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:40">
@@ -24110,7 +24155,7 @@
         <v>0</v>
       </c>
       <c r="AN191">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:40">
@@ -24232,7 +24277,7 @@
         <v>0</v>
       </c>
       <c r="AN192">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="193" spans="1:40">
@@ -24354,7 +24399,7 @@
         <v>0</v>
       </c>
       <c r="AN193">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:40">
@@ -24476,7 +24521,7 @@
         <v>0</v>
       </c>
       <c r="AN194">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:40">
@@ -24598,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="AN195">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:40">
@@ -24720,7 +24765,7 @@
         <v>0</v>
       </c>
       <c r="AN196">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:40">
@@ -24842,7 +24887,7 @@
         <v>0</v>
       </c>
       <c r="AN197">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:40">
@@ -24964,7 +25009,7 @@
         <v>0</v>
       </c>
       <c r="AN198">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:40">
@@ -25086,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="AN199">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:40">
@@ -25208,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="AN200">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:40">
@@ -25330,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="AN201">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:40">
@@ -25452,7 +25497,7 @@
         <v>0</v>
       </c>
       <c r="AN202">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:40">
@@ -25574,7 +25619,7 @@
         <v>0</v>
       </c>
       <c r="AN203">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:40">
@@ -25696,7 +25741,7 @@
         <v>0</v>
       </c>
       <c r="AN204">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:40">
@@ -25818,7 +25863,7 @@
         <v>0</v>
       </c>
       <c r="AN205">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:40">
@@ -25940,7 +25985,7 @@
         <v>0</v>
       </c>
       <c r="AN206">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:40">
@@ -26062,7 +26107,7 @@
         <v>0</v>
       </c>
       <c r="AN207">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:40">
@@ -26184,7 +26229,7 @@
         <v>0</v>
       </c>
       <c r="AN208">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:40">
@@ -26306,7 +26351,7 @@
         <v>0</v>
       </c>
       <c r="AN209">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:40">
@@ -26428,7 +26473,7 @@
         <v>0</v>
       </c>
       <c r="AN210">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:40">
@@ -26550,7 +26595,7 @@
         <v>0</v>
       </c>
       <c r="AN211">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:40">
@@ -26672,7 +26717,7 @@
         <v>0</v>
       </c>
       <c r="AN212">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:40">
@@ -26794,7 +26839,7 @@
         <v>0</v>
       </c>
       <c r="AN213">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:40">
@@ -26916,7 +26961,7 @@
         <v>0</v>
       </c>
       <c r="AN214">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:40">
@@ -27038,7 +27083,7 @@
         <v>0</v>
       </c>
       <c r="AN215">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:40">
@@ -27160,7 +27205,7 @@
         <v>0</v>
       </c>
       <c r="AN216">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:40">
@@ -27282,7 +27327,7 @@
         <v>0</v>
       </c>
       <c r="AN217">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:40">
@@ -27404,7 +27449,7 @@
         <v>0</v>
       </c>
       <c r="AN218">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:40">
@@ -27526,7 +27571,7 @@
         <v>0</v>
       </c>
       <c r="AN219">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="220" spans="1:40">
@@ -27648,7 +27693,7 @@
         <v>0</v>
       </c>
       <c r="AN220">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
       </c>
     </row>
     <row r="221" spans="1:40">
@@ -27770,7 +27815,1471 @@
         <v>0</v>
       </c>
       <c r="AN221">
-        <v>0.3615384615384615</v>
+        <v>0.3916666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:40">
+      <c r="A222" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>1</v>
+      </c>
+      <c r="AH222">
+        <v>1</v>
+      </c>
+      <c r="AI222">
+        <v>1</v>
+      </c>
+      <c r="AJ222">
+        <v>1</v>
+      </c>
+      <c r="AK222">
+        <v>1</v>
+      </c>
+      <c r="AL222">
+        <v>0</v>
+      </c>
+      <c r="AM222">
+        <v>0</v>
+      </c>
+      <c r="AN222">
+        <v>0.3916666666666667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:40">
+      <c r="A223" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>1</v>
+      </c>
+      <c r="AH223">
+        <v>1</v>
+      </c>
+      <c r="AI223">
+        <v>1</v>
+      </c>
+      <c r="AJ223">
+        <v>1</v>
+      </c>
+      <c r="AK223">
+        <v>1</v>
+      </c>
+      <c r="AL223">
+        <v>0</v>
+      </c>
+      <c r="AM223">
+        <v>0</v>
+      </c>
+      <c r="AN223">
+        <v>0.3916666666666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:40">
+      <c r="A224" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>1</v>
+      </c>
+      <c r="AH224">
+        <v>1</v>
+      </c>
+      <c r="AI224">
+        <v>1</v>
+      </c>
+      <c r="AJ224">
+        <v>1</v>
+      </c>
+      <c r="AK224">
+        <v>1</v>
+      </c>
+      <c r="AL224">
+        <v>0</v>
+      </c>
+      <c r="AM224">
+        <v>0</v>
+      </c>
+      <c r="AN224">
+        <v>0.3916666666666667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:40">
+      <c r="A225" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>1</v>
+      </c>
+      <c r="AH225">
+        <v>1</v>
+      </c>
+      <c r="AI225">
+        <v>1</v>
+      </c>
+      <c r="AJ225">
+        <v>1</v>
+      </c>
+      <c r="AK225">
+        <v>1</v>
+      </c>
+      <c r="AL225">
+        <v>0</v>
+      </c>
+      <c r="AM225">
+        <v>0</v>
+      </c>
+      <c r="AN225">
+        <v>0.3916666666666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:40">
+      <c r="A226" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>1</v>
+      </c>
+      <c r="AH226">
+        <v>1</v>
+      </c>
+      <c r="AI226">
+        <v>1</v>
+      </c>
+      <c r="AJ226">
+        <v>1</v>
+      </c>
+      <c r="AK226">
+        <v>1</v>
+      </c>
+      <c r="AL226">
+        <v>0</v>
+      </c>
+      <c r="AM226">
+        <v>0</v>
+      </c>
+      <c r="AN226">
+        <v>0.3916666666666667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:40">
+      <c r="A227" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>1</v>
+      </c>
+      <c r="AH227">
+        <v>1</v>
+      </c>
+      <c r="AI227">
+        <v>1</v>
+      </c>
+      <c r="AJ227">
+        <v>1</v>
+      </c>
+      <c r="AK227">
+        <v>1</v>
+      </c>
+      <c r="AL227">
+        <v>0</v>
+      </c>
+      <c r="AM227">
+        <v>0</v>
+      </c>
+      <c r="AN227">
+        <v>0.3916666666666667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:40">
+      <c r="A228" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>1</v>
+      </c>
+      <c r="AH228">
+        <v>1</v>
+      </c>
+      <c r="AI228">
+        <v>1</v>
+      </c>
+      <c r="AJ228">
+        <v>1</v>
+      </c>
+      <c r="AK228">
+        <v>1</v>
+      </c>
+      <c r="AL228">
+        <v>0</v>
+      </c>
+      <c r="AM228">
+        <v>0</v>
+      </c>
+      <c r="AN228">
+        <v>0.3916666666666667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:40">
+      <c r="A229" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>1</v>
+      </c>
+      <c r="AH229">
+        <v>1</v>
+      </c>
+      <c r="AI229">
+        <v>1</v>
+      </c>
+      <c r="AJ229">
+        <v>1</v>
+      </c>
+      <c r="AK229">
+        <v>1</v>
+      </c>
+      <c r="AL229">
+        <v>0</v>
+      </c>
+      <c r="AM229">
+        <v>0</v>
+      </c>
+      <c r="AN229">
+        <v>0.3916666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:40">
+      <c r="A230" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>1</v>
+      </c>
+      <c r="AH230">
+        <v>1</v>
+      </c>
+      <c r="AI230">
+        <v>1</v>
+      </c>
+      <c r="AJ230">
+        <v>1</v>
+      </c>
+      <c r="AK230">
+        <v>1</v>
+      </c>
+      <c r="AL230">
+        <v>0</v>
+      </c>
+      <c r="AM230">
+        <v>0</v>
+      </c>
+      <c r="AN230">
+        <v>0.3916666666666667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:40">
+      <c r="A231" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>1</v>
+      </c>
+      <c r="AH231">
+        <v>1</v>
+      </c>
+      <c r="AI231">
+        <v>1</v>
+      </c>
+      <c r="AJ231">
+        <v>1</v>
+      </c>
+      <c r="AK231">
+        <v>1</v>
+      </c>
+      <c r="AL231">
+        <v>0</v>
+      </c>
+      <c r="AM231">
+        <v>0</v>
+      </c>
+      <c r="AN231">
+        <v>0.3916666666666667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:40">
+      <c r="A232" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>1</v>
+      </c>
+      <c r="AH232">
+        <v>1</v>
+      </c>
+      <c r="AI232">
+        <v>1</v>
+      </c>
+      <c r="AJ232">
+        <v>1</v>
+      </c>
+      <c r="AK232">
+        <v>1</v>
+      </c>
+      <c r="AL232">
+        <v>0</v>
+      </c>
+      <c r="AM232">
+        <v>0</v>
+      </c>
+      <c r="AN232">
+        <v>0.3916666666666667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:40">
+      <c r="A233" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>1</v>
+      </c>
+      <c r="AH233">
+        <v>1</v>
+      </c>
+      <c r="AI233">
+        <v>1</v>
+      </c>
+      <c r="AJ233">
+        <v>1</v>
+      </c>
+      <c r="AK233">
+        <v>1</v>
+      </c>
+      <c r="AL233">
+        <v>0</v>
+      </c>
+      <c r="AM233">
+        <v>0</v>
+      </c>
+      <c r="AN233">
+        <v>0.3916666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -28162,6 +29671,9 @@
       <c r="B28" t="s">
         <v>36</v>
       </c>
+      <c r="C28" s="2">
+        <v>43906</v>
+      </c>
       <c r="D28" s="2">
         <v>44048</v>
       </c>
@@ -28255,6 +29767,12 @@
       </c>
       <c r="B36" t="s">
         <v>28</v>
+      </c>
+      <c r="C36" s="2">
+        <v>43906</v>
+      </c>
+      <c r="D36" s="2">
+        <v>43990</v>
       </c>
       <c r="E36" s="2">
         <v>44043</v>
